--- a/szinvalaszto.xlsx
+++ b/szinvalaszto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\szoftverprojektek\szinvalaszto_repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11c-banko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F776CFDE-4129-4665-90F6-46C48E63BA9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6542BC9-077E-4780-B75D-C742CD137EA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{838ED7CD-5B1D-4FC5-BE8D-45B427D54534}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{838ED7CD-5B1D-4FC5-BE8D-45B427D54534}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Feladat</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Bankó Olivér</t>
+  </si>
+  <si>
+    <t>Prezentáció</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5452222-2FBF-463B-AEDE-3FB0E189B46B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -508,6 +511,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
